--- a/data/long_bre/P23_6-Urba-long_bre.xlsx
+++ b/data/long_bre/P23_6-Urba-long_bre.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,6 +521,10 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,12 +540,16 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -551,12 +566,32 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -567,6 +602,10 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -576,27 +615,47 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,21</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,96</t>
+          <t>3,58</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-6,39%</t>
+          <t>5,01</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>31,27%</t>
+          <t>1,02</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>-5,62%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>27,73%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>40,36%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>5,02%</t>
         </is>
       </c>
     </row>
@@ -609,22 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 4,24</t>
+          <t>-6,52; 4,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 8,22</t>
+          <t>-0,8; 7,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-32,68; 27,52</t>
+          <t>-0,89; 10,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 78,82</t>
+          <t>-5,83; 7,47</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-29,95; 27,44</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-5,5; 71,24</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-6,89; 105,49</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-24,31; 43,41</t>
         </is>
       </c>
     </row>
@@ -632,27 +711,47 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,26</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-4,75</t>
+          <t>-3,74</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,92%</t>
+          <t>-7,89</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-6,69%</t>
+          <t>2,78</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-0,96%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-5,34%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-11,36%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>4,95%</t>
         </is>
       </c>
     </row>
@@ -665,22 +764,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 6,35</t>
+          <t>-7,5; 7,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,54; 2,48</t>
+          <t>-9,66; 3,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,66; 10,72</t>
+          <t>-15,66; 0,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,11; 3,59</t>
+          <t>-5,59; 10,72</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-10,75; 11,71</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-13,25; 6,12</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-21,1; 0,03</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-9,05; 20,81</t>
         </is>
       </c>
     </row>
@@ -688,27 +807,47 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,47</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>15,84%</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>-3,81</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>10,41%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0,98%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>15,83%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-16,29%</t>
         </is>
       </c>
     </row>
@@ -721,54 +860,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 7,8</t>
+          <t>-5,49; 6,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 5,65</t>
+          <t>-8,27; 5,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-20,71; 62,43</t>
+          <t>-4,0; 9,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-31,95; 42,47</t>
+          <t>-10,46; 2,87</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-28,18; 54,53</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-37,3; 37,63</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-18,91; 63,96</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-37,13; 15,94</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,95</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-3,7</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,56%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-19,61%</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -781,50 +956,94 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 9,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,76; 1,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-19,92; 58,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-46,35; 10,28</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-4,01</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,98</t>
+          <t>-3,95</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-6,39%</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>-4,29</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>10,95%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-20,71%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-2,24%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-19,9%</t>
         </is>
       </c>
     </row>
@@ -837,22 +1056,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,06; 4,66</t>
+          <t>-5,55; 9,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 8,85</t>
+          <t>-11,15; 1,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-17,9; 8,24</t>
+          <t>-6,9; 5,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 14,33</t>
+          <t>-16,2; 7,74</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-22,97; 55,5</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-45,73; 10,68</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-35,01; 45,46</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-57,71; 49,63</t>
         </is>
       </c>
     </row>
@@ -860,27 +1099,47 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>-2,71</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>11,3%</t>
+          <t>-1,01</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>-4,39%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>2,6%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1,62%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-1,88%</t>
         </is>
       </c>
     </row>
@@ -893,54 +1152,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 7,33</t>
+          <t>-11,12; 5,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 7,33</t>
+          <t>-5,68; 8,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-26,16; 53,0</t>
+          <t>-6,94; 10,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-18,38; 57,48</t>
+          <t>-18,99; 13,2</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-16,6; 9,76</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-8,18; 14,4</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-10,61; 19,83</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-30,39; 29,36</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,71</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,27</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-8,5%</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-14,04%</t>
+          <t>5,29</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2,59%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>14,92%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-2,75%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>21,26%</t>
         </is>
       </c>
     </row>
@@ -953,22 +1248,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-15,16; 11,17</t>
+          <t>-6,7; 6,75</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-15,21; 7,7</t>
+          <t>-2,67; 8,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-55,93; 89,88</t>
+          <t>-9,09; 6,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-60,78; 79,25</t>
+          <t>-8,48; 18,53</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-30,39; 50,27</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-15,25; 68,12</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-32,81; 34,63</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-26,54; 102,93</t>
         </is>
       </c>
     </row>
@@ -976,27 +1291,47 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>4,63</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-3,51</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-4,93%</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1009,50 +1344,94 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-11,04; 22,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-15,82; 11,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-15,62; 46,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-20,17; 19,36</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-2,92</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>5,78</t>
+          <t>-2,46</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-14,21%</t>
+          <t>-12,57</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>45,69%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-5,19%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-14,55%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-48,35%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1065,54 +1444,90 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-21,49; 9,16</t>
+          <t>-14,51; 11,2</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 15,29</t>
+          <t>-17,28; 7,44</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-70,72; 70,38</t>
+          <t>-31,03; 2,5</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-30,39; 179,53</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-52,18; 89,37</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-66,21; 70,54</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-77,5; 16,97</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>5,32</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>-3,13</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>23,58</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>9,11%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-4,49%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>53,82%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1540,42 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 4,58</t>
+          <t>-11,38; 22,39</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 3,72</t>
+          <t>-16,44; 11,02</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-18,88; 26,32</t>
+          <t>6,05; 44,32</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-17,58; 28,81</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-16,91; 49,2</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-21,36; 17,33</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>10,1; 152,97</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1148,27 +1583,47 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-1,61</t>
+          <t>-4,31</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-1,94</t>
+          <t>5,59</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-2,53%</t>
+          <t>-11,01</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-2,81%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>-19,36%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>42,01%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-36,48%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1181,22 +1636,42 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 3,54</t>
+          <t>-25,18; 8,25</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 2,55</t>
+          <t>-5,14; 15,71</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-9,99; 6,05</t>
+          <t>-40,99; 3,57</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-8,54; 3,93</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>-67,62; 62,44</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>-31,35; 178,67</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-82,38; 17,73</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1679,47 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>11,48%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1237,34 +1732,449 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 4,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 5,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-17,25; 33,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-14,73; 37,12</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>-0,14</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>0,83</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>-0,1</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>1,2%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>-0,88%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>5,33%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-0,49%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>-4,06; 4,25</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>-4,02; 2,88</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>-3,58; 5,5</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>-5,43; 5,98</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>-18,17; 24,86</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-21,75; 20,83</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-19,53; 40,9</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-23,5; 34,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>-0,69</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>-1,51</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>-0,66</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>2,13</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>-1,1%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>-2,2%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-1,04%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>3,84%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>-6,49; 4,41</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-5,66; 3,16</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-6,59; 5,46</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-6,01; 9,26</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-9,59; 7,53</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-7,95; 4,92</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-9,87; 9,24</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-9,7; 17,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>0,46</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>1,64</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-0,17</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>-2,03</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>2,64%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>10,46%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>-0,81%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>-8,56%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-3,81; 4,41</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-2,41; 5,19</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-5,62; 5,05</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-7,98; 4,51</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-19,1; 29,2</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-13,45; 39,29</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-22,69; 28,44</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-29,39; 22,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_bre/P23_6-Urba-long_bre.xlsx
+++ b/data/long_bre/P23_6-Urba-long_bre.xlsx
@@ -624,7 +624,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -720,7 +720,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -816,7 +816,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -916,7 +916,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1012,7 +1012,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1108,7 +1108,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1292,7 +1292,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1376,7 +1376,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1560,7 +1560,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1656,7 +1656,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
